--- a/sol.xlsx
+++ b/sol.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q909"/>
+  <dimension ref="A1:Q925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48601,34 +48601,34 @@
         <v>258100</v>
       </c>
       <c r="D909" t="n">
-        <v>248000</v>
+        <v>243700</v>
       </c>
       <c r="E909" t="n">
-        <v>249800</v>
+        <v>247950</v>
       </c>
       <c r="F909" t="n">
-        <v>282792.16891527</v>
+        <v>466523.02275404</v>
       </c>
       <c r="G909" t="n">
-        <v>71396395115.1508</v>
+        <v>117036687651.7656</v>
       </c>
       <c r="H909" t="n">
-        <v>256377.6629971499</v>
+        <v>255760.9963304832</v>
       </c>
       <c r="I909" t="n">
-        <v>260580.0633977943</v>
+        <v>260243.6997614306</v>
       </c>
       <c r="J909" t="n">
-        <v>259192.7829253205</v>
+        <v>259016.59244913</v>
       </c>
       <c r="K909" t="n">
-        <v>251050.5110622654</v>
+        <v>250931.1562235558</v>
       </c>
       <c r="L909" t="n">
-        <v>231742.4924585494</v>
+        <v>231669.9434389416</v>
       </c>
       <c r="M909" t="n">
-        <v>5050</v>
+        <v>7200</v>
       </c>
       <c r="N909" t="n">
         <v>263000</v>
@@ -48641,6 +48641,854 @@
       </c>
       <c r="Q909" t="n">
         <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="2" t="n">
+        <v>45392.375</v>
+      </c>
+      <c r="B910" t="n">
+        <v>247900</v>
+      </c>
+      <c r="C910" t="n">
+        <v>251000</v>
+      </c>
+      <c r="D910" t="n">
+        <v>235000</v>
+      </c>
+      <c r="E910" t="n">
+        <v>247350</v>
+      </c>
+      <c r="F910" t="n">
+        <v>409702.28748792</v>
+      </c>
+      <c r="G910" t="n">
+        <v>99788070996.50676</v>
+      </c>
+      <c r="H910" t="n">
+        <v>252957.3308869888</v>
+      </c>
+      <c r="I910" t="n">
+        <v>257899.3907138978</v>
+      </c>
+      <c r="J910" t="n">
+        <v>257905.4884063557</v>
+      </c>
+      <c r="K910" t="n">
+        <v>250700.1138865522</v>
+      </c>
+      <c r="L910" t="n">
+        <v>232284.8476178066</v>
+      </c>
+      <c r="M910" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N910" t="n">
+        <v>255100</v>
+      </c>
+      <c r="O910" t="n">
+        <v>1</v>
+      </c>
+      <c r="P910" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q910" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="2" t="n">
+        <v>45393.375</v>
+      </c>
+      <c r="B911" t="n">
+        <v>247300</v>
+      </c>
+      <c r="C911" t="n">
+        <v>252500</v>
+      </c>
+      <c r="D911" t="n">
+        <v>243550</v>
+      </c>
+      <c r="E911" t="n">
+        <v>247100</v>
+      </c>
+      <c r="F911" t="n">
+        <v>280467.13596342</v>
+      </c>
+      <c r="G911" t="n">
+        <v>69461709957.4147</v>
+      </c>
+      <c r="H911" t="n">
+        <v>251004.8872579926</v>
+      </c>
+      <c r="I911" t="n">
+        <v>255935.8651295527</v>
+      </c>
+      <c r="J911" t="n">
+        <v>256876.3942724171</v>
+      </c>
+      <c r="K911" t="n">
+        <v>250467.8484745166</v>
+      </c>
+      <c r="L911" t="n">
+        <v>232865.8339857358</v>
+      </c>
+      <c r="M911" t="n">
+        <v>4475</v>
+      </c>
+      <c r="N911" t="n">
+        <v>255300</v>
+      </c>
+      <c r="O911" t="n">
+        <v>1</v>
+      </c>
+      <c r="P911" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q911" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="2" t="n">
+        <v>45394.375</v>
+      </c>
+      <c r="B912" t="n">
+        <v>247400</v>
+      </c>
+      <c r="C912" t="n">
+        <v>250800</v>
+      </c>
+      <c r="D912" t="n">
+        <v>219300</v>
+      </c>
+      <c r="E912" t="n">
+        <v>228050</v>
+      </c>
+      <c r="F912" t="n">
+        <v>506084.15396853</v>
+      </c>
+      <c r="G912" t="n">
+        <v>118735758675.2069</v>
+      </c>
+      <c r="H912" t="n">
+        <v>243353.2581719951</v>
+      </c>
+      <c r="I912" t="n">
+        <v>250865.7078332704</v>
+      </c>
+      <c r="J912" t="n">
+        <v>254131.0233893297</v>
+      </c>
+      <c r="K912" t="n">
+        <v>249021.5356697091</v>
+      </c>
+      <c r="L912" t="n">
+        <v>232676.9777510011</v>
+      </c>
+      <c r="M912" t="n">
+        <v>15750</v>
+      </c>
+      <c r="N912" t="n">
+        <v>251875</v>
+      </c>
+      <c r="O912" t="n">
+        <v>1</v>
+      </c>
+      <c r="P912" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q912" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="2" t="n">
+        <v>45395.375</v>
+      </c>
+      <c r="B913" t="n">
+        <v>228050</v>
+      </c>
+      <c r="C913" t="n">
+        <v>230000</v>
+      </c>
+      <c r="D913" t="n">
+        <v>189000</v>
+      </c>
+      <c r="E913" t="n">
+        <v>210250</v>
+      </c>
+      <c r="F913" t="n">
+        <v>1201557.06758717</v>
+      </c>
+      <c r="G913" t="n">
+        <v>253686192149.7904</v>
+      </c>
+      <c r="H913" t="n">
+        <v>232318.83878133</v>
+      </c>
+      <c r="I913" t="n">
+        <v>243481.0336817667</v>
+      </c>
+      <c r="J913" t="n">
+        <v>249951.8783046317</v>
+      </c>
+      <c r="K913" t="n">
+        <v>246520.1462716634</v>
+      </c>
+      <c r="L913" t="n">
+        <v>231797.4884274324</v>
+      </c>
+      <c r="M913" t="n">
+        <v>20500</v>
+      </c>
+      <c r="N913" t="n">
+        <v>243800</v>
+      </c>
+      <c r="O913" t="n">
+        <v>1</v>
+      </c>
+      <c r="P913" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q913" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="2" t="n">
+        <v>45396.375</v>
+      </c>
+      <c r="B914" t="n">
+        <v>210300</v>
+      </c>
+      <c r="C914" t="n">
+        <v>230800</v>
+      </c>
+      <c r="D914" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E914" t="n">
+        <v>228200</v>
+      </c>
+      <c r="F914" t="n">
+        <v>1069036.07359876</v>
+      </c>
+      <c r="G914" t="n">
+        <v>227362522690.7318</v>
+      </c>
+      <c r="H914" t="n">
+        <v>230945.8925208867</v>
+      </c>
+      <c r="I914" t="n">
+        <v>240702.6639214455</v>
+      </c>
+      <c r="J914" t="n">
+        <v>247880.2708470477</v>
+      </c>
+      <c r="K914" t="n">
+        <v>245338.2013509109</v>
+      </c>
+      <c r="L914" t="n">
+        <v>231656.4104498861</v>
+      </c>
+      <c r="M914" t="n">
+        <v>15400</v>
+      </c>
+      <c r="N914" t="n">
+        <v>230800</v>
+      </c>
+      <c r="O914" t="n">
+        <v>1</v>
+      </c>
+      <c r="P914" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q914" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="2" t="n">
+        <v>45397.375</v>
+      </c>
+      <c r="B915" t="n">
+        <v>228100</v>
+      </c>
+      <c r="C915" t="n">
+        <v>233000</v>
+      </c>
+      <c r="D915" t="n">
+        <v>205550</v>
+      </c>
+      <c r="E915" t="n">
+        <v>211100</v>
+      </c>
+      <c r="F915" t="n">
+        <v>881802.01209263</v>
+      </c>
+      <c r="G915" t="n">
+        <v>193790331762.3953</v>
+      </c>
+      <c r="H915" t="n">
+        <v>224330.5950139245</v>
+      </c>
+      <c r="I915" t="n">
+        <v>235320.3613902736</v>
+      </c>
+      <c r="J915" t="n">
+        <v>244377.3879092336</v>
+      </c>
+      <c r="K915" t="n">
+        <v>243129.2851347231</v>
+      </c>
+      <c r="L915" t="n">
+        <v>230850.2767067533</v>
+      </c>
+      <c r="M915" t="n">
+        <v>13725</v>
+      </c>
+      <c r="N915" t="n">
+        <v>243500</v>
+      </c>
+      <c r="O915" t="n">
+        <v>1</v>
+      </c>
+      <c r="P915" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q915" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="2" t="n">
+        <v>45398.375</v>
+      </c>
+      <c r="B916" t="n">
+        <v>211300</v>
+      </c>
+      <c r="C916" t="n">
+        <v>213050</v>
+      </c>
+      <c r="D916" t="n">
+        <v>193000</v>
+      </c>
+      <c r="E916" t="n">
+        <v>203850</v>
+      </c>
+      <c r="F916" t="n">
+        <v>904952.467062</v>
+      </c>
+      <c r="G916" t="n">
+        <v>183077428240.5638</v>
+      </c>
+      <c r="H916" t="n">
+        <v>217503.730009283</v>
+      </c>
+      <c r="I916" t="n">
+        <v>229598.4775011329</v>
+      </c>
+      <c r="J916" t="n">
+        <v>240517.6366797828</v>
+      </c>
+      <c r="K916" t="n">
+        <v>240595.1377066765</v>
+      </c>
+      <c r="L916" t="n">
+        <v>229791.4423260963</v>
+      </c>
+      <c r="M916" t="n">
+        <v>10025</v>
+      </c>
+      <c r="N916" t="n">
+        <v>225025</v>
+      </c>
+      <c r="O916" t="n">
+        <v>1</v>
+      </c>
+      <c r="P916" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q916" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="2" t="n">
+        <v>45399.375</v>
+      </c>
+      <c r="B917" t="n">
+        <v>203850</v>
+      </c>
+      <c r="C917" t="n">
+        <v>212350</v>
+      </c>
+      <c r="D917" t="n">
+        <v>192000</v>
+      </c>
+      <c r="E917" t="n">
+        <v>196800</v>
+      </c>
+      <c r="F917" t="n">
+        <v>921397.40995471</v>
+      </c>
+      <c r="G917" t="n">
+        <v>185841285411.6595</v>
+      </c>
+      <c r="H917" t="n">
+        <v>210602.4866728554</v>
+      </c>
+      <c r="I917" t="n">
+        <v>223635.1179554723</v>
+      </c>
+      <c r="J917" t="n">
+        <v>236354.0522340892</v>
+      </c>
+      <c r="K917" t="n">
+        <v>237769.6449514071</v>
+      </c>
+      <c r="L917" t="n">
+        <v>228497.6602740925</v>
+      </c>
+      <c r="M917" t="n">
+        <v>10175</v>
+      </c>
+      <c r="N917" t="n">
+        <v>213875</v>
+      </c>
+      <c r="O917" t="n">
+        <v>1</v>
+      </c>
+      <c r="P917" t="n">
+        <v>1.648324156817595</v>
+      </c>
+      <c r="Q917" t="n">
+        <v>7.625074419715156</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="2" t="n">
+        <v>45400.375</v>
+      </c>
+      <c r="B918" t="n">
+        <v>196850</v>
+      </c>
+      <c r="C918" t="n">
+        <v>211500</v>
+      </c>
+      <c r="D918" t="n">
+        <v>189500</v>
+      </c>
+      <c r="E918" t="n">
+        <v>208850</v>
+      </c>
+      <c r="F918" t="n">
+        <v>995747.61011033</v>
+      </c>
+      <c r="G918" t="n">
+        <v>198836951776.8687</v>
+      </c>
+      <c r="H918" t="n">
+        <v>210018.3244485703</v>
+      </c>
+      <c r="I918" t="n">
+        <v>220946.914690841</v>
+      </c>
+      <c r="J918" t="n">
+        <v>233734.6186879854</v>
+      </c>
+      <c r="K918" t="n">
+        <v>235903.861406155</v>
+      </c>
+      <c r="L918" t="n">
+        <v>227727.1637927556</v>
+      </c>
+      <c r="M918" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N918" t="n">
+        <v>207025</v>
+      </c>
+      <c r="O918" t="n">
+        <v>1.008815360463712</v>
+      </c>
+      <c r="P918" t="n">
+        <v>1.662854728420986</v>
+      </c>
+      <c r="Q918" t="n">
+        <v>6.810756152916377</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="2" t="n">
+        <v>45401.375</v>
+      </c>
+      <c r="B919" t="n">
+        <v>208850</v>
+      </c>
+      <c r="C919" t="n">
+        <v>215350</v>
+      </c>
+      <c r="D919" t="n">
+        <v>190600</v>
+      </c>
+      <c r="E919" t="n">
+        <v>208200</v>
+      </c>
+      <c r="F919" t="n">
+        <v>1263913.95244766</v>
+      </c>
+      <c r="G919" t="n">
+        <v>259453463380.2998</v>
+      </c>
+      <c r="H919" t="n">
+        <v>209412.2162990468</v>
+      </c>
+      <c r="I919" t="n">
+        <v>218629.2938379608</v>
+      </c>
+      <c r="J919" t="n">
+        <v>231302.7502415106</v>
+      </c>
+      <c r="K919" t="n">
+        <v>234116.5155089837</v>
+      </c>
+      <c r="L919" t="n">
+        <v>226961.3926636279</v>
+      </c>
+      <c r="M919" t="n">
+        <v>12375</v>
+      </c>
+      <c r="N919" t="n">
+        <v>219850</v>
+      </c>
+      <c r="O919" t="n">
+        <v>1</v>
+      </c>
+      <c r="P919" t="n">
+        <v>1.662854728420986</v>
+      </c>
+      <c r="Q919" t="n">
+        <v>6.810756152916377</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="2" t="n">
+        <v>45402.375</v>
+      </c>
+      <c r="B920" t="n">
+        <v>208200</v>
+      </c>
+      <c r="C920" t="n">
+        <v>222100</v>
+      </c>
+      <c r="D920" t="n">
+        <v>205250</v>
+      </c>
+      <c r="E920" t="n">
+        <v>220750</v>
+      </c>
+      <c r="F920" t="n">
+        <v>475893.77857268</v>
+      </c>
+      <c r="G920" t="n">
+        <v>101186900509.8081</v>
+      </c>
+      <c r="H920" t="n">
+        <v>213191.4775326979</v>
+      </c>
+      <c r="I920" t="n">
+        <v>219014.8767765134</v>
+      </c>
+      <c r="J920" t="n">
+        <v>230297.7264089858</v>
+      </c>
+      <c r="K920" t="n">
+        <v>233254.1596696945</v>
+      </c>
+      <c r="L920" t="n">
+        <v>226717.8086376033</v>
+      </c>
+      <c r="M920" t="n">
+        <v>8425</v>
+      </c>
+      <c r="N920" t="n">
+        <v>220575</v>
+      </c>
+      <c r="O920" t="n">
+        <v>1.00079338093619</v>
+      </c>
+      <c r="P920" t="n">
+        <v>1.664174005662168</v>
+      </c>
+      <c r="Q920" t="n">
+        <v>6.736821583390181</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="2" t="n">
+        <v>45403.375</v>
+      </c>
+      <c r="B921" t="n">
+        <v>220750</v>
+      </c>
+      <c r="C921" t="n">
+        <v>224400</v>
+      </c>
+      <c r="D921" t="n">
+        <v>215500</v>
+      </c>
+      <c r="E921" t="n">
+        <v>217300</v>
+      </c>
+      <c r="F921" t="n">
+        <v>389337.66115487</v>
+      </c>
+      <c r="G921" t="n">
+        <v>85639059129.75435</v>
+      </c>
+      <c r="H921" t="n">
+        <v>214560.9850217986</v>
+      </c>
+      <c r="I921" t="n">
+        <v>218703.0809989655</v>
+      </c>
+      <c r="J921" t="n">
+        <v>229059.8477033681</v>
+      </c>
+      <c r="K921" t="n">
+        <v>232224.8590458432</v>
+      </c>
+      <c r="L921" t="n">
+        <v>226348.4828086777</v>
+      </c>
+      <c r="M921" t="n">
+        <v>4450</v>
+      </c>
+      <c r="N921" t="n">
+        <v>229175</v>
+      </c>
+      <c r="O921" t="n">
+        <v>1</v>
+      </c>
+      <c r="P921" t="n">
+        <v>1.664174005662168</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>6.736821583390181</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="2" t="n">
+        <v>45404.375</v>
+      </c>
+      <c r="B922" t="n">
+        <v>217350</v>
+      </c>
+      <c r="C922" t="n">
+        <v>229550</v>
+      </c>
+      <c r="D922" t="n">
+        <v>215050</v>
+      </c>
+      <c r="E922" t="n">
+        <v>227950</v>
+      </c>
+      <c r="F922" t="n">
+        <v>475433.19860309</v>
+      </c>
+      <c r="G922" t="n">
+        <v>105730393405.7881</v>
+      </c>
+      <c r="H922" t="n">
+        <v>219023.9900145325</v>
+      </c>
+      <c r="I922" t="n">
+        <v>220384.3389991535</v>
+      </c>
+      <c r="J922" t="n">
+        <v>228954.147922095</v>
+      </c>
+      <c r="K922" t="n">
+        <v>231949.0616880469</v>
+      </c>
+      <c r="L922" t="n">
+        <v>226411.2874044159</v>
+      </c>
+      <c r="M922" t="n">
+        <v>7250</v>
+      </c>
+      <c r="N922" t="n">
+        <v>221800</v>
+      </c>
+      <c r="O922" t="n">
+        <v>1.027727682596934</v>
+      </c>
+      <c r="P922" t="n">
+        <v>1.710317694277237</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>4.150849774273188</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="2" t="n">
+        <v>45405.375</v>
+      </c>
+      <c r="B923" t="n">
+        <v>228100</v>
+      </c>
+      <c r="C923" t="n">
+        <v>231550</v>
+      </c>
+      <c r="D923" t="n">
+        <v>221650</v>
+      </c>
+      <c r="E923" t="n">
+        <v>223950</v>
+      </c>
+      <c r="F923" t="n">
+        <v>429891.09323617</v>
+      </c>
+      <c r="G923" t="n">
+        <v>97307849430.54462</v>
+      </c>
+      <c r="H923" t="n">
+        <v>220665.9933430217</v>
+      </c>
+      <c r="I923" t="n">
+        <v>221032.6409993074</v>
+      </c>
+      <c r="J923" t="n">
+        <v>228477.562405705</v>
+      </c>
+      <c r="K923" t="n">
+        <v>231432.9931920439</v>
+      </c>
+      <c r="L923" t="n">
+        <v>226314.7663297329</v>
+      </c>
+      <c r="M923" t="n">
+        <v>4950</v>
+      </c>
+      <c r="N923" t="n">
+        <v>235350</v>
+      </c>
+      <c r="O923" t="n">
+        <v>1</v>
+      </c>
+      <c r="P923" t="n">
+        <v>1.710317694277237</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>4.150849774273188</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="2" t="n">
+        <v>45406.375</v>
+      </c>
+      <c r="B924" t="n">
+        <v>224000</v>
+      </c>
+      <c r="C924" t="n">
+        <v>229950</v>
+      </c>
+      <c r="D924" t="n">
+        <v>212300</v>
+      </c>
+      <c r="E924" t="n">
+        <v>214950</v>
+      </c>
+      <c r="F924" t="n">
+        <v>477547.39563193</v>
+      </c>
+      <c r="G924" t="n">
+        <v>106607589983.1765</v>
+      </c>
+      <c r="H924" t="n">
+        <v>218760.6622286811</v>
+      </c>
+      <c r="I924" t="n">
+        <v>219926.7062721606</v>
+      </c>
+      <c r="J924" t="n">
+        <v>227189.2231289712</v>
+      </c>
+      <c r="K924" t="n">
+        <v>230369.5742764281</v>
+      </c>
+      <c r="L924" t="n">
+        <v>225869.089218763</v>
+      </c>
+      <c r="M924" t="n">
+        <v>8825</v>
+      </c>
+      <c r="N924" t="n">
+        <v>228950</v>
+      </c>
+      <c r="O924" t="n">
+        <v>0.9388512775715222</v>
+      </c>
+      <c r="P924" t="n">
+        <v>1.605733952325364</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>10.01190285643163</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="2" t="n">
+        <v>45407.375</v>
+      </c>
+      <c r="B925" t="n">
+        <v>214950</v>
+      </c>
+      <c r="C925" t="n">
+        <v>217700</v>
+      </c>
+      <c r="D925" t="n">
+        <v>206050</v>
+      </c>
+      <c r="E925" t="n">
+        <v>208700</v>
+      </c>
+      <c r="F925" t="n">
+        <v>289614.700008</v>
+      </c>
+      <c r="G925" t="n">
+        <v>61213221226.39233</v>
+      </c>
+      <c r="H925" t="n">
+        <v>215407.1081524541</v>
+      </c>
+      <c r="I925" t="n">
+        <v>217885.4869499496</v>
+      </c>
+      <c r="J925" t="n">
+        <v>225428.3447357358</v>
+      </c>
+      <c r="K925" t="n">
+        <v>228971.537226336</v>
+      </c>
+      <c r="L925" t="n">
+        <v>225195.7916023409</v>
+      </c>
+      <c r="M925" t="n">
+        <v>5825</v>
+      </c>
+      <c r="N925" t="n">
+        <v>223775</v>
+      </c>
+      <c r="O925" t="n">
+        <v>1</v>
+      </c>
+      <c r="P925" t="n">
+        <v>1.605733952325364</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>10.01190285643163</v>
       </c>
     </row>
   </sheetData>
